--- a/server/routes/export/reviewTemplate.xlsx
+++ b/server/routes/export/reviewTemplate.xlsx
@@ -239,27 +239,14 @@
     <t>%</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Are the tone and content appropriate for audience? Is the firm accurately represented? </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Content would not be considered puerile or offensive to an average and reasonable reader.</t>
-    </r>
+    <t>Are the tone and content appropriate for audience? Is the firm accurately represented? Content would not be considered puerile or offensive to an average and reasonable reader.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,14 +298,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -664,9 +643,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -842,29 +818,32 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1287,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z39"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G34" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A31" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1296,20 +1275,20 @@
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="68.5546875" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="66" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="65" customWidth="1"/>
     <col min="5" max="5" width="56.109375" customWidth="1"/>
     <col min="6" max="6" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="E1" s="61" t="s">
+      <c r="B1" s="70"/>
+      <c r="E1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1318,10 +1297,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="56" t="s">
         <v>57</v>
       </c>
       <c r="Z2" t="s">
@@ -1333,10 +1312,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="57" t="s">
         <v>58</v>
       </c>
       <c r="Z3">
@@ -1348,10 +1327,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>59</v>
       </c>
       <c r="Z4">
@@ -1363,10 +1342,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="58"/>
       <c r="Z5">
         <v>0</v>
       </c>
@@ -1376,20 +1355,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="59"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1404,34 +1383,34 @@
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="76"/>
       <c r="Z9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
+      <c r="B10" s="7"/>
       <c r="Z10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="53" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1439,161 +1418,161 @@
       <c r="A12" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="41" t="s">
+      <c r="C12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="71"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="22"/>
+      <c r="C14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="71"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="20" t="s">
+      <c r="C15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="71"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
+      <c r="C16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="71"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="22"/>
+      <c r="C17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="14"/>
+      <c r="C18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="72"/>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="22"/>
+      <c r="C19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="72"/>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="22"/>
+      <c r="C20" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="56" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="71"/>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="22" t="s">
+      <c r="C23" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="21" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1601,207 +1580,202 @@
       <c r="A24" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="71"/>
-      <c r="B25" s="31" t="s">
+      <c r="B25" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="22"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="71"/>
-      <c r="B26" s="31" t="s">
+      <c r="B26" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="22"/>
+      <c r="C26" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="71"/>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="22"/>
+      <c r="C27" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="71"/>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="17"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="33" t="s">
+      <c r="A29" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="34" t="s">
+      <c r="B29" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="45"/>
-      <c r="F29" s="22"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="72"/>
-      <c r="B31" s="32" t="s">
+      <c r="B31" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="17"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="36" t="s">
+      <c r="B32" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="14"/>
+      <c r="C32" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="13"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="71"/>
-      <c r="B33" s="28" t="s">
+      <c r="B33" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="22"/>
+      <c r="C33" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="71"/>
-      <c r="B34" s="28" t="s">
+      <c r="B34" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="22"/>
+      <c r="C34" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="71"/>
-      <c r="B35" s="38" t="s">
+      <c r="B35" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C35" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="15"/>
-      <c r="E35" s="49" t="s">
+      <c r="C35" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="F35" s="54" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="17"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="16"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="39"/>
-      <c r="B37" s="73" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="73"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="53"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="52"/>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="69" t="s">
+      <c r="A38" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B38" s="69"/>
-      <c r="C38" s="69"/>
-      <c r="D38" s="70"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="53"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="74"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="52"/>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="69" t="s">
+      <c r="A39" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B39" s="69"/>
-      <c r="C39" s="69"/>
-      <c r="D39" s="68"/>
-      <c r="E39" s="52" t="s">
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="F39" s="53"/>
+      <c r="F39" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A38:C38"/>
     <mergeCell ref="D38:E38"/>
     <mergeCell ref="A39:C39"/>
@@ -1810,6 +1784,11 @@
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="B37:C37"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A21:A22"/>
   </mergeCells>
   <conditionalFormatting sqref="B8">
     <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Exceed">
@@ -1834,8 +1813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1843,20 +1822,20 @@
     <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="68.5546875" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" style="66" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="65" customWidth="1"/>
     <col min="5" max="5" width="56.109375" customWidth="1"/>
     <col min="6" max="6" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="70" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="E1" s="61" t="s">
+      <c r="B1" s="70"/>
+      <c r="E1" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="62" t="s">
+      <c r="F1" s="61" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1865,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="E2" s="63" t="s">
+      <c r="E2" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="56" t="s">
         <v>57</v>
       </c>
       <c r="Z2" t="s">
@@ -1880,10 +1859,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="E3" s="64" t="s">
+      <c r="E3" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F3" s="58" t="s">
+      <c r="F3" s="57" t="s">
         <v>58</v>
       </c>
       <c r="Z3">
@@ -1895,10 +1874,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4"/>
-      <c r="E4" s="64" t="s">
+      <c r="E4" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>59</v>
       </c>
       <c r="Z4">
@@ -1910,10 +1889,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="E5" s="64" t="s">
+      <c r="E5" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="F5" s="59"/>
+      <c r="F5" s="58"/>
       <c r="Z5">
         <v>0</v>
       </c>
@@ -1923,20 +1902,20 @@
         <v>5</v>
       </c>
       <c r="B6" s="4"/>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="F6" s="59"/>
+      <c r="F6" s="58"/>
     </row>
     <row r="7" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="59"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1951,34 +1930,34 @@
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="76"/>
       <c r="Z9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="8"/>
+      <c r="B10" s="7"/>
       <c r="Z10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="53" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1986,333 +1965,333 @@
       <c r="A12" s="71" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="41" t="s">
+      <c r="C12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="40" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="71"/>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="16"/>
     </row>
     <row r="14" spans="1:26" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="22"/>
+      <c r="C14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="21"/>
     </row>
     <row r="15" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="71"/>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="20" t="s">
+      <c r="C15" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="21"/>
     </row>
     <row r="16" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="71"/>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="22"/>
+      <c r="C16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="21"/>
     </row>
     <row r="17" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="71"/>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="22"/>
+      <c r="C17" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="21"/>
     </row>
     <row r="18" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="14"/>
+      <c r="C18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="13"/>
     </row>
     <row r="19" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="72"/>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="22"/>
+      <c r="C19" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="72"/>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="22"/>
+      <c r="C20" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="56" t="s">
+      <c r="D21" s="14"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="55" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="71"/>
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="17"/>
+      <c r="C22" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="1:6" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="15"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="71"/>
-      <c r="B24" s="31" t="s">
+      <c r="B24" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="15"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="22"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="21"/>
     </row>
     <row r="25" spans="1:6" ht="47.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="71"/>
-      <c r="B25" s="75" t="s">
+      <c r="B25" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="C25" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="15"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="22"/>
+      <c r="C25" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="21"/>
     </row>
     <row r="26" spans="1:6" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="71"/>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="22"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6" ht="29.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="15"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="22"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="13"/>
     </row>
     <row r="29" spans="1:6" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="72"/>
-      <c r="B29" s="32" t="s">
+      <c r="B29" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="15"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="17"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="71" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="14"/>
+      <c r="C30" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="13"/>
     </row>
     <row r="31" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="71"/>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="15"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="22"/>
+      <c r="C31" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="71"/>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="27" t="s">
         <v>46</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="15"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="22"/>
+      <c r="C32" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" spans="1:6" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="71"/>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="15"/>
-      <c r="E33" s="49" t="s">
+      <c r="C33" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="55" t="s">
+      <c r="F33" s="54" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="69" t="s">
+      <c r="A34" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="69"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="17"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="49"/>
+      <c r="F34" s="16"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="67"/>
-      <c r="B35" s="73" t="s">
+      <c r="A35" s="66"/>
+      <c r="B35" s="75" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="73"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="53"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="50"/>
+      <c r="F35" s="52"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="69" t="s">
+      <c r="A36" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="B36" s="69"/>
-      <c r="C36" s="69"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="53"/>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="74"/>
+      <c r="E36" s="74"/>
+      <c r="F36" s="52"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="69" t="s">
+      <c r="A37" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="52" t="s">
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="67"/>
+      <c r="E37" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="F37" s="53"/>
+      <c r="F37" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="13">
